--- a/drawings/drawings_discrete-structures.xlsx
+++ b/drawings/drawings_discrete-structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kyungjae-lee\kyungjae-lee.github.io\drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16ADD1-78D4-4B73-B479-9E706C63DE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6888E-0A50-49A2-90A0-7435C6EDD869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24E40718-CCED-462F-8DA3-35B778271D47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="46">
   <si>
     <t>A</t>
   </si>
@@ -138,6 +138,68 @@
   </si>
   <si>
     <t>Negation</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Correct Negation</t>
+  </si>
+  <si>
+    <t>Incorrect Negation</t>
+  </si>
+  <si>
+    <t>It will snow tomorrow.</t>
+  </si>
+  <si>
+    <t>It is false that it will snow tomorrow.</t>
+  </si>
+  <si>
+    <t>Jake is tall and thin.</t>
+  </si>
+  <si>
+    <t>It is false that Jake is tall and thin.
+Jake is not tall or he is not thin.
+Jake is short or fat.</t>
+  </si>
+  <si>
+    <t>Peter is short and fat.
+Too strong a statement. 
+Peter fails to have both properties (tallness and thinness) but may still have one property.</t>
+  </si>
+  <si>
+    <t>The river is shallow or polluted.</t>
+  </si>
+  <si>
+    <t>It is false that the river is shallow or polluted.
+The river is neither shallow nor polluted.
+The river is deep and unpolluted.</t>
+  </si>
+  <si>
+    <t>The river is not shallow or not polluted.
+Too weak a statement.
+The river fails to have either property, not just fails to have one property.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B'</t>
+  </si>
+  <si>
+    <t>C'</t>
+  </si>
+  <si>
+    <t>(A ∧ B) → C</t>
+  </si>
+  <si>
+    <t>((A ∧ B) → C) → (C' →(A' ∨ B))</t>
+  </si>
+  <si>
+    <t>A' ∨ B</t>
+  </si>
+  <si>
+    <t>C' → (A' ∨ B)</t>
   </si>
 </sst>
 </file>
@@ -355,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -366,103 +428,246 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -530,6 +735,486 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -925,79 +1610,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81D8EB0-F8AC-4F6B-8D58-0D3E6C9A5E40}">
-  <dimension ref="D1:AF42"/>
+  <dimension ref="D1:AI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AL28" sqref="AL28"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="AR65" sqref="AR65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.5703125" style="6"/>
+    <col min="1" max="16384" width="3.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:28" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="T2" s="8" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="T2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="8"/>
+      <c r="U2" s="34"/>
     </row>
     <row r="3" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="L4" s="9" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="L4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="T4" s="9" t="s">
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="T4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1008,22 +1693,22 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="N5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="T5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1038,22 +1723,22 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="L6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="N6" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
       <c r="T6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1068,22 +1753,22 @@
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
@@ -1094,59 +1779,59 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="L8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="N8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AB9" s="15"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="AB10" s="15"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="AB11" s="15"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="AB12" s="15"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="AB12" s="7"/>
     </row>
     <row r="13" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
@@ -1155,12 +1840,12 @@
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="AB13" s="15"/>
+      <c r="F13" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
@@ -1169,12 +1854,12 @@
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="AB14" s="15"/>
+      <c r="F14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="AB14" s="7"/>
     </row>
     <row r="15" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
@@ -1183,25 +1868,25 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="K15" s="16" t="s">
+      <c r="F15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="K15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="AB15" s="15"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="4:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
@@ -1210,23 +1895,23 @@
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="AB16" s="15"/>
+      <c r="F16" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="3"/>
@@ -1234,90 +1919,90 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="AB17" s="15"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
     </row>
     <row r="19" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
     </row>
     <row r="20" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10" t="s">
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
     </row>
     <row r="21" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
@@ -1326,28 +2011,28 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
+      <c r="F21" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
     </row>
     <row r="22" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
@@ -1356,28 +2041,28 @@
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="14"/>
+      <c r="F22" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="31"/>
     </row>
     <row r="23" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
@@ -1386,28 +2071,28 @@
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="14"/>
+      <c r="F23" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="31"/>
     </row>
     <row r="24" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
@@ -1416,500 +2101,1600 @@
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="14"/>
+      <c r="F24" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="31"/>
     </row>
     <row r="25" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
     </row>
     <row r="26" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
     </row>
     <row r="28" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="33" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="33" t="s">
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="35"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="18" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="18" t="s">
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="20"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="12"/>
     </row>
     <row r="30" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="22"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="18"/>
     </row>
     <row r="31" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="12" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="12" t="s">
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="14"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="31"/>
     </row>
     <row r="32" spans="4:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="18" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="18" t="s">
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="20"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="12"/>
     </row>
     <row r="33" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="15"/>
     </row>
     <row r="34" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="24"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="15"/>
     </row>
     <row r="35" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="15"/>
     </row>
     <row r="36" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="24"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="15"/>
     </row>
     <row r="37" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="22"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="18"/>
     </row>
     <row r="38" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="18" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="27" t="s">
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="29"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="22"/>
     </row>
     <row r="39" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="32"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="25"/>
     </row>
     <row r="40" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="18" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="18" t="s">
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="20"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="12"/>
     </row>
     <row r="41" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="24"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="15"/>
     </row>
     <row r="42" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="22"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="18"/>
+    </row>
+    <row r="45" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="28"/>
+    </row>
+    <row r="46" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="40"/>
+    </row>
+    <row r="47" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="43"/>
+    </row>
+    <row r="48" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="44"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="46"/>
+    </row>
+    <row r="49" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="40"/>
+    </row>
+    <row r="50" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="43"/>
+    </row>
+    <row r="51" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="43"/>
+    </row>
+    <row r="52" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="43"/>
+    </row>
+    <row r="53" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="43"/>
+    </row>
+    <row r="54" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="46"/>
+    </row>
+    <row r="55" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="40"/>
+    </row>
+    <row r="56" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="43"/>
+    </row>
+    <row r="57" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="43"/>
+    </row>
+    <row r="58" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="43"/>
+    </row>
+    <row r="59" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="43"/>
+    </row>
+    <row r="60" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="43"/>
+    </row>
+    <row r="61" spans="4:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="46"/>
+    </row>
+    <row r="65" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="34"/>
+      <c r="AH65" s="34"/>
+      <c r="AI65" s="34"/>
+    </row>
+    <row r="66" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+    </row>
+    <row r="67" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="33"/>
+      <c r="AD67" s="33"/>
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="33"/>
+      <c r="AG67" s="33"/>
+      <c r="AH67" s="33"/>
+      <c r="AI67" s="33"/>
+    </row>
+    <row r="68" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA68" s="37"/>
+      <c r="AB68" s="37"/>
+      <c r="AC68" s="37"/>
+      <c r="AD68" s="37"/>
+      <c r="AE68" s="37"/>
+      <c r="AF68" s="37"/>
+      <c r="AG68" s="37"/>
+      <c r="AH68" s="37"/>
+      <c r="AI68" s="37"/>
+    </row>
+    <row r="69" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA69" s="37"/>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="37"/>
+      <c r="AD69" s="37"/>
+      <c r="AE69" s="37"/>
+      <c r="AF69" s="37"/>
+      <c r="AG69" s="37"/>
+      <c r="AH69" s="37"/>
+      <c r="AI69" s="37"/>
+    </row>
+    <row r="70" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA70" s="37"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="37"/>
+      <c r="AE70" s="37"/>
+      <c r="AF70" s="37"/>
+      <c r="AG70" s="37"/>
+      <c r="AH70" s="37"/>
+      <c r="AI70" s="37"/>
+    </row>
+    <row r="71" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA71" s="37"/>
+      <c r="AB71" s="37"/>
+      <c r="AC71" s="37"/>
+      <c r="AD71" s="37"/>
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="37"/>
+      <c r="AG71" s="37"/>
+      <c r="AH71" s="37"/>
+      <c r="AI71" s="37"/>
+    </row>
+    <row r="72" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA72" s="37"/>
+      <c r="AB72" s="37"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="37"/>
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="37"/>
+      <c r="AG72" s="37"/>
+      <c r="AH72" s="37"/>
+      <c r="AI72" s="37"/>
+    </row>
+    <row r="73" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="37"/>
+      <c r="AD73" s="37"/>
+      <c r="AE73" s="37"/>
+      <c r="AF73" s="37"/>
+      <c r="AG73" s="37"/>
+      <c r="AH73" s="37"/>
+      <c r="AI73" s="37"/>
+    </row>
+    <row r="74" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA74" s="37"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="37"/>
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="37"/>
+      <c r="AG74" s="37"/>
+      <c r="AH74" s="37"/>
+      <c r="AI74" s="37"/>
+    </row>
+    <row r="75" spans="4:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA75" s="37"/>
+      <c r="AB75" s="37"/>
+      <c r="AC75" s="37"/>
+      <c r="AD75" s="37"/>
+      <c r="AE75" s="37"/>
+      <c r="AF75" s="37"/>
+      <c r="AG75" s="37"/>
+      <c r="AH75" s="37"/>
+      <c r="AI75" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="N40:T42"/>
-    <mergeCell ref="N29:T30"/>
-    <mergeCell ref="U29:AA30"/>
-    <mergeCell ref="N32:T37"/>
-    <mergeCell ref="U32:AA37"/>
-    <mergeCell ref="D38:M39"/>
-    <mergeCell ref="D40:M42"/>
-    <mergeCell ref="N38:T39"/>
-    <mergeCell ref="U38:AA39"/>
-    <mergeCell ref="U40:AA42"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="D29:M30"/>
+  <mergeCells count="112">
+    <mergeCell ref="D65:AI66"/>
+    <mergeCell ref="U75:Y75"/>
+    <mergeCell ref="Z67:AI67"/>
+    <mergeCell ref="Z68:AI68"/>
+    <mergeCell ref="Z69:AI69"/>
+    <mergeCell ref="Z70:AI70"/>
+    <mergeCell ref="Z71:AI71"/>
+    <mergeCell ref="Z72:AI72"/>
+    <mergeCell ref="Z73:AI73"/>
+    <mergeCell ref="Z74:AI74"/>
+    <mergeCell ref="Z75:AI75"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="U71:Y71"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="U73:Y73"/>
+    <mergeCell ref="U74:Y74"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="D49:K54"/>
+    <mergeCell ref="D55:K61"/>
+    <mergeCell ref="L49:S54"/>
+    <mergeCell ref="L55:S61"/>
+    <mergeCell ref="T49:AA54"/>
+    <mergeCell ref="T55:AA61"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="D46:K48"/>
+    <mergeCell ref="L45:S45"/>
+    <mergeCell ref="L46:S48"/>
+    <mergeCell ref="T46:AA48"/>
+    <mergeCell ref="T45:AA45"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="L2:P3"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="L20:U20"/>
+    <mergeCell ref="L21:U21"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="D32:M37"/>
     <mergeCell ref="D31:M31"/>
     <mergeCell ref="K15:U16"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="D18:U19"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="L24:U24"/>
     <mergeCell ref="F24:H24"/>
@@ -1918,59 +3703,105 @@
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L2:P3"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="L20:U20"/>
-    <mergeCell ref="L21:U21"/>
-    <mergeCell ref="L22:U22"/>
     <mergeCell ref="L23:U23"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="D29:M30"/>
+    <mergeCell ref="D38:M39"/>
+    <mergeCell ref="D40:M42"/>
+    <mergeCell ref="N38:T39"/>
+    <mergeCell ref="U38:AA39"/>
+    <mergeCell ref="U40:AA42"/>
+    <mergeCell ref="N40:T42"/>
+    <mergeCell ref="N29:T30"/>
+    <mergeCell ref="U29:AA30"/>
+    <mergeCell ref="N32:T37"/>
+    <mergeCell ref="U32:AA37"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:H8">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="D5:H8 D68:E71">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:P8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:U8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:H24">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K24">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:H17">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:I75">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G72:H75">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F75">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:E75">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M72:O75">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:H71">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:L71">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68:O71">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:L75">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P68:AI75">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/drawings/drawings_discrete-structures.xlsx
+++ b/drawings/drawings_discrete-structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kyungjae-lee\kyungjae-lee.github.io\drawings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8BE2AD-5FFF-4B0C-9F5D-C3B5360D8114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45728278-EAE1-4F30-A400-CFF19EE34CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24E40718-CCED-462F-8DA3-35B778271D47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="130">
   <si>
     <t>A</t>
   </si>
@@ -444,12 +444,218 @@
   <si>
     <t>(complement properties)</t>
   </si>
+  <si>
+    <t>Equivalence Rules</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Name/Abbreviation for Rule</t>
+  </si>
+  <si>
+    <t>P ∨ Q</t>
+  </si>
+  <si>
+    <t>P ∨ Q
+P ∧ Q</t>
+  </si>
+  <si>
+    <t>(P ∨ Q) ∨ R
+(P ∧ Q) ∧ R</t>
+  </si>
+  <si>
+    <t>(P ∨ Q)'
+(P ∧ Q)'</t>
+  </si>
+  <si>
+    <t>P → Q</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Q</t>
+    </r>
+  </si>
+  <si>
+    <t>Q ∨ P
+Q ∧ P</t>
+  </si>
+  <si>
+    <t>Commutative</t>
+  </si>
+  <si>
+    <t>P ∨ (Q ∨ R)
+P ∧ (Q ∧ R)</t>
+  </si>
+  <si>
+    <t>Associative</t>
+  </si>
+  <si>
+    <t>P ∧ Q</t>
+  </si>
+  <si>
+    <t>P' ∧ Q'
+P' ∨ Q'</t>
+  </si>
+  <si>
+    <t>P' ∨ Q</t>
+  </si>
+  <si>
+    <t>(P')'</t>
+  </si>
+  <si>
+    <t>(P → Q) ∧ (Q → P)</t>
+  </si>
+  <si>
+    <t>De Morgan's Laws</t>
+  </si>
+  <si>
+    <t>Double negation</t>
+  </si>
+  <si>
+    <t>Definition of equivalence</t>
+  </si>
+  <si>
+    <t>Inference Rules</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Can Derive</t>
+  </si>
+  <si>
+    <t>P, P → Q</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Modus ponens</t>
+  </si>
+  <si>
+    <t>P → Q, Q'</t>
+  </si>
+  <si>
+    <t>P'</t>
+  </si>
+  <si>
+    <t>Modus tollens</t>
+  </si>
+  <si>
+    <t>P, Q</t>
+  </si>
+  <si>
+    <t>Simplification</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Derivation Hints</t>
+  </si>
+  <si>
+    <t>Modus ponens is probably the most intuitive inference rule. Think often about trying to  use it.</t>
+  </si>
+  <si>
+    <t>Wffs of the form (P ∧ Q)' or  (P ∨ Q)' are seldom helpful in a proof sequence. Try using De Morgan's laws to convert them into P' ∨ Q' and P' ∧ Q', respectively, which breaks out the individual components.</t>
+  </si>
+  <si>
+    <t>Wffs of the form P ∨ Q are also seldom helpful in a proof sequence because they do not imply either P or Q. Try using double negation to conver P ∨ Q to (P')' ∨ Q, and then using implication to convert to P' → Q.</t>
+  </si>
+  <si>
+    <t>More Inference Rules</t>
+  </si>
+  <si>
+    <t>P → Q, Q → R</t>
+  </si>
+  <si>
+    <t>P ∨ Q, P'</t>
+  </si>
+  <si>
+    <t>Q' → P'</t>
+  </si>
+  <si>
+    <t>P ∨ P</t>
+  </si>
+  <si>
+    <t>(P ∧ Q) → R</t>
+  </si>
+  <si>
+    <t>P, P'</t>
+  </si>
+  <si>
+    <t>P ∧ (Q ∨ R)</t>
+  </si>
+  <si>
+    <t>P ∨ (Q ∧ R)</t>
+  </si>
+  <si>
+    <t>P → R</t>
+  </si>
+  <si>
+    <t>P ∧ P</t>
+  </si>
+  <si>
+    <t>P → (Q → R)</t>
+  </si>
+  <si>
+    <t>(P ∧ Q) ∨ (P ∧ R)</t>
+  </si>
+  <si>
+    <t>(P ∨ Q) ∧ (P ∨ R)</t>
+  </si>
+  <si>
+    <t>Hypothetical syllogism</t>
+  </si>
+  <si>
+    <t>Disjunctive syllogism</t>
+  </si>
+  <si>
+    <t>Contraposition</t>
+  </si>
+  <si>
+    <t>Self-reference</t>
+  </si>
+  <si>
+    <t>Exportation</t>
+  </si>
+  <si>
+    <t>Inconsistency</t>
+  </si>
+  <si>
+    <t>Distributive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +706,12 @@
       <color theme="1"/>
       <name val="aerial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -521,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -661,11 +873,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -690,68 +939,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -801,11 +993,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81D8EB0-F8AC-4F6B-8D58-0D3E6C9A5E40}">
-  <dimension ref="D1:AK83"/>
+  <dimension ref="D1:AK131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72:Y72"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AL116" sqref="AL116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1379,38 +1640,38 @@
   <sheetData>
     <row r="1" spans="4:28" ht="6" customHeight="1"/>
     <row r="2" spans="4:28" ht="18.75" customHeight="1">
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="L2" s="26" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="L2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="T2" s="10" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="T2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="10"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="4:28" ht="18.75" customHeight="1">
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
     </row>
     <row r="4" spans="4:28" ht="18.75" customHeight="1">
       <c r="D4" s="5" t="s">
@@ -1419,22 +1680,22 @@
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="L4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="T4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1449,22 +1710,22 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="N5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
       <c r="T5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1479,22 +1740,22 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="F6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="L6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="N6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
       <c r="T6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1509,22 +1770,22 @@
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="F7" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="N7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
@@ -1535,22 +1796,22 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="L8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="N8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
@@ -1558,21 +1819,21 @@
       <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="4:28" ht="18.75" customHeight="1">
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="4:28" ht="18.75" customHeight="1">
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="4:28" ht="18.75" customHeight="1">
@@ -1582,11 +1843,11 @@
       <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="AB12" s="7"/>
     </row>
     <row r="13" spans="4:28" ht="18.75" customHeight="1">
@@ -1596,11 +1857,11 @@
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="4:28" ht="18.75" customHeight="1">
@@ -1610,11 +1871,11 @@
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="AB14" s="7"/>
     </row>
     <row r="15" spans="4:28" ht="18.75" customHeight="1">
@@ -1624,24 +1885,24 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="K15" s="30" t="s">
+      <c r="F15" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="K15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
       <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="4:28" ht="18.75" customHeight="1">
@@ -1651,22 +1912,22 @@
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
+      <c r="F16" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
       <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="4:32" ht="18.75" customHeight="1">
@@ -1689,46 +1950,46 @@
       <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="4:32" ht="18.75" customHeight="1">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
     </row>
     <row r="19" spans="4:32" ht="18.75" customHeight="1">
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
     </row>
     <row r="20" spans="4:32" ht="18.75" customHeight="1">
       <c r="D20" s="5" t="s">
@@ -1737,28 +1998,28 @@
       <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13" t="s">
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13" t="s">
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="4:32" ht="18.75" customHeight="1">
       <c r="D21" s="1" t="s">
@@ -1767,28 +2028,28 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="29"/>
+      <c r="F21" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="30"/>
     </row>
     <row r="22" spans="4:32" ht="18.75" customHeight="1">
       <c r="D22" s="1" t="s">
@@ -1797,28 +2058,28 @@
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="29"/>
+      <c r="F22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30"/>
     </row>
     <row r="23" spans="4:32" ht="18.75" customHeight="1">
       <c r="D23" s="1" t="s">
@@ -1827,28 +2088,28 @@
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="29"/>
+      <c r="F23" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30"/>
     </row>
     <row r="24" spans="4:32" ht="18.75" customHeight="1">
       <c r="D24" s="1" t="s">
@@ -1857,28 +2118,28 @@
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="29"/>
+      <c r="F24" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="30"/>
     </row>
     <row r="25" spans="4:32" ht="18.75" customHeight="1">
       <c r="Z25" s="9"/>
@@ -1899,964 +2160,964 @@
       <c r="AF26" s="9"/>
     </row>
     <row r="28" spans="4:32" ht="18.75" customHeight="1">
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="23" t="s">
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="23" t="s">
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="25"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="38"/>
     </row>
     <row r="29" spans="4:32" ht="18.75" customHeight="1">
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="32" t="s">
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="34"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="4:32" ht="18.75" customHeight="1">
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="46"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="27"/>
     </row>
     <row r="31" spans="4:32" ht="18.75" customHeight="1">
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="27" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="27" t="s">
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="30"/>
     </row>
     <row r="32" spans="4:32" ht="18.75" customHeight="1">
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="32" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="32" t="s">
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="34"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="15"/>
     </row>
     <row r="33" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="37"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="18"/>
     </row>
     <row r="34" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="37"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="18"/>
     </row>
     <row r="35" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="37"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="18"/>
     </row>
     <row r="36" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="37"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="18"/>
     </row>
     <row r="37" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="46"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="27"/>
     </row>
     <row r="38" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="32" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="38" t="s">
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="40"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="21"/>
     </row>
     <row r="39" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="43"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="24"/>
     </row>
     <row r="40" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="32" t="s">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="32" t="s">
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="34"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="15"/>
     </row>
     <row r="41" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="37"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="18"/>
     </row>
     <row r="42" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="46"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="27"/>
     </row>
     <row r="45" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="23" t="s">
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="23" t="s">
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="25"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="38"/>
     </row>
     <row r="46" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="14" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="16"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="42"/>
     </row>
     <row r="47" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="19"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="22"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="48"/>
     </row>
     <row r="49" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="14" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="14" t="s">
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="16"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="42"/>
     </row>
     <row r="50" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="19"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="19"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="19"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="19"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="22"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="48"/>
     </row>
     <row r="55" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="14" t="s">
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="14" t="s">
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="16"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="42"/>
     </row>
     <row r="56" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="19"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="19"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="19"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="19"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="19"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="22"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="48"/>
     </row>
     <row r="65" spans="4:37" ht="18.75" customHeight="1">
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="10"/>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="10"/>
-      <c r="AE65" s="10"/>
-      <c r="AF65" s="10"/>
-      <c r="AG65" s="10"/>
-      <c r="AH65" s="10"/>
-      <c r="AI65" s="10"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
     </row>
     <row r="66" spans="4:37" ht="18.75" customHeight="1">
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="11"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="11"/>
-      <c r="AI66" s="11"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="34"/>
+      <c r="AI66" s="34"/>
     </row>
     <row r="67" spans="4:37" ht="18.75" customHeight="1">
       <c r="D67" s="6" t="s">
@@ -2877,42 +3138,42 @@
       <c r="I67" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13" t="s">
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13" t="s">
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13" t="s">
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13" t="s">
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="32"/>
+      <c r="Z67" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
-      <c r="AC67" s="13"/>
-      <c r="AD67" s="13"/>
-      <c r="AE67" s="13"/>
-      <c r="AF67" s="13"/>
-      <c r="AG67" s="13"/>
-      <c r="AH67" s="13"/>
-      <c r="AI67" s="13"/>
+      <c r="AA67" s="32"/>
+      <c r="AB67" s="32"/>
+      <c r="AC67" s="32"/>
+      <c r="AD67" s="32"/>
+      <c r="AE67" s="32"/>
+      <c r="AF67" s="32"/>
+      <c r="AG67" s="32"/>
+      <c r="AH67" s="32"/>
+      <c r="AI67" s="32"/>
     </row>
     <row r="68" spans="4:37" ht="18.75" customHeight="1">
       <c r="D68" s="2" t="s">
@@ -2933,42 +3194,42 @@
       <c r="I68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="12"/>
-      <c r="AC68" s="12"/>
-      <c r="AD68" s="12"/>
-      <c r="AE68" s="12"/>
-      <c r="AF68" s="12"/>
-      <c r="AG68" s="12"/>
-      <c r="AH68" s="12"/>
-      <c r="AI68" s="12"/>
+      <c r="J68" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
     </row>
     <row r="69" spans="4:37" ht="18.75" customHeight="1">
       <c r="D69" s="2" t="s">
@@ -2989,42 +3250,42 @@
       <c r="I69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="12"/>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="12"/>
-      <c r="AI69" s="12"/>
+      <c r="J69" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
     </row>
     <row r="70" spans="4:37" ht="18.75" customHeight="1">
       <c r="D70" s="2" t="s">
@@ -3045,42 +3306,42 @@
       <c r="I70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
-      <c r="AF70" s="12"/>
-      <c r="AG70" s="12"/>
-      <c r="AH70" s="12"/>
-      <c r="AI70" s="12"/>
+      <c r="J70" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
     </row>
     <row r="71" spans="4:37" ht="18.75" customHeight="1">
       <c r="D71" s="2" t="s">
@@ -3101,42 +3362,42 @@
       <c r="I71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
-      <c r="AI71" s="12"/>
+      <c r="J71" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
     </row>
     <row r="72" spans="4:37" ht="18.75" customHeight="1">
       <c r="D72" s="2" t="s">
@@ -3157,42 +3418,42 @@
       <c r="I72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="12"/>
-      <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
-      <c r="AF72" s="12"/>
-      <c r="AG72" s="12"/>
-      <c r="AH72" s="12"/>
-      <c r="AI72" s="12"/>
+      <c r="J72" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+      <c r="AC72" s="35"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="35"/>
+      <c r="AF72" s="35"/>
+      <c r="AG72" s="35"/>
+      <c r="AH72" s="35"/>
+      <c r="AI72" s="35"/>
     </row>
     <row r="73" spans="4:37" ht="18.75" customHeight="1">
       <c r="D73" s="2" t="s">
@@ -3213,42 +3474,42 @@
       <c r="I73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
-      <c r="AI73" s="12"/>
+      <c r="J73" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="35"/>
+      <c r="AG73" s="35"/>
+      <c r="AH73" s="35"/>
+      <c r="AI73" s="35"/>
     </row>
     <row r="74" spans="4:37" ht="18.75" customHeight="1">
       <c r="D74" s="2" t="s">
@@ -3269,42 +3530,42 @@
       <c r="I74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="12"/>
+      <c r="J74" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA74" s="35"/>
+      <c r="AB74" s="35"/>
+      <c r="AC74" s="35"/>
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="35"/>
+      <c r="AF74" s="35"/>
+      <c r="AG74" s="35"/>
+      <c r="AH74" s="35"/>
+      <c r="AI74" s="35"/>
     </row>
     <row r="75" spans="4:37" ht="18.75" customHeight="1">
       <c r="D75" s="2" t="s">
@@ -3325,312 +3586,1585 @@
       <c r="I75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="12"/>
-      <c r="AI75" s="12"/>
+      <c r="J75" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+      <c r="AH75" s="35"/>
+      <c r="AI75" s="35"/>
     </row>
     <row r="79" spans="4:37" ht="18.75" customHeight="1">
       <c r="D79" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="47" t="s">
+      <c r="E79" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
       <c r="P79" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q79" s="47" t="s">
+      <c r="Q79" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="47"/>
-      <c r="W79" s="47"/>
-      <c r="X79" s="47"/>
-      <c r="Y79" s="47"/>
-      <c r="Z79" s="47"/>
-      <c r="AA79" s="47"/>
-      <c r="AB79" s="47" t="s">
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AC79" s="47"/>
-      <c r="AD79" s="47"/>
-      <c r="AE79" s="47"/>
-      <c r="AF79" s="47"/>
-      <c r="AG79" s="47"/>
-      <c r="AH79" s="47"/>
-      <c r="AI79" s="47"/>
-      <c r="AJ79" s="48"/>
-      <c r="AK79" s="48"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="10"/>
+      <c r="AK79" s="10"/>
     </row>
     <row r="80" spans="4:37" ht="18.75" customHeight="1">
       <c r="D80" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
       <c r="P80" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q80" s="47" t="s">
+      <c r="Q80" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="R80" s="47"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
-      <c r="V80" s="47"/>
-      <c r="W80" s="47"/>
-      <c r="X80" s="47"/>
-      <c r="Y80" s="47"/>
-      <c r="Z80" s="47"/>
-      <c r="AA80" s="47"/>
-      <c r="AB80" s="47" t="s">
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AC80" s="47"/>
-      <c r="AD80" s="47"/>
-      <c r="AE80" s="47"/>
-      <c r="AF80" s="47"/>
-      <c r="AG80" s="47"/>
-      <c r="AH80" s="47"/>
-      <c r="AI80" s="47"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="11"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
     </row>
     <row r="81" spans="4:35" ht="18.75" customHeight="1">
       <c r="D81" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="47" t="s">
+      <c r="E81" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="47"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="47"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
       <c r="P81" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q81" s="47" t="s">
+      <c r="Q81" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R81" s="47"/>
-      <c r="S81" s="47"/>
-      <c r="T81" s="47"/>
-      <c r="U81" s="47"/>
-      <c r="V81" s="47"/>
-      <c r="W81" s="47"/>
-      <c r="X81" s="47"/>
-      <c r="Y81" s="47"/>
-      <c r="Z81" s="47"/>
-      <c r="AA81" s="47"/>
-      <c r="AB81" s="47" t="s">
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AC81" s="47"/>
-      <c r="AD81" s="47"/>
-      <c r="AE81" s="47"/>
-      <c r="AF81" s="47"/>
-      <c r="AG81" s="47"/>
-      <c r="AH81" s="47"/>
-      <c r="AI81" s="47"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="11"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
     </row>
     <row r="82" spans="4:35" ht="18.75" customHeight="1">
       <c r="D82" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="47" t="s">
+      <c r="E82" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
       <c r="P82" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q82" s="47" t="s">
+      <c r="Q82" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="R82" s="47"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
-      <c r="X82" s="47"/>
-      <c r="Y82" s="47"/>
-      <c r="Z82" s="47"/>
-      <c r="AA82" s="47"/>
-      <c r="AB82" s="47" t="s">
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="11"/>
+      <c r="AB82" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC82" s="47"/>
-      <c r="AD82" s="47"/>
-      <c r="AE82" s="47"/>
-      <c r="AF82" s="47"/>
-      <c r="AG82" s="47"/>
-      <c r="AH82" s="47"/>
-      <c r="AI82" s="47"/>
+      <c r="AC82" s="11"/>
+      <c r="AD82" s="11"/>
+      <c r="AE82" s="11"/>
+      <c r="AF82" s="11"/>
+      <c r="AG82" s="11"/>
+      <c r="AH82" s="11"/>
+      <c r="AI82" s="11"/>
     </row>
     <row r="83" spans="4:35" ht="18.75" customHeight="1">
       <c r="D83" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="47" t="s">
+      <c r="E83" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q83" s="47" t="s">
+      <c r="Q83" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47"/>
-      <c r="W83" s="47"/>
-      <c r="X83" s="47"/>
-      <c r="Y83" s="47"/>
-      <c r="Z83" s="47"/>
-      <c r="AA83" s="47"/>
-      <c r="AB83" s="47" t="s">
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="11"/>
+      <c r="AB83" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AC83" s="47"/>
-      <c r="AD83" s="47"/>
-      <c r="AE83" s="47"/>
-      <c r="AF83" s="47"/>
-      <c r="AG83" s="47"/>
-      <c r="AH83" s="47"/>
-      <c r="AI83" s="47"/>
+      <c r="AC83" s="11"/>
+      <c r="AD83" s="11"/>
+      <c r="AE83" s="11"/>
+      <c r="AF83" s="11"/>
+      <c r="AG83" s="11"/>
+      <c r="AH83" s="11"/>
+      <c r="AI83" s="11"/>
+    </row>
+    <row r="86" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D86" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="33"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="33"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="33"/>
+    </row>
+    <row r="87" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D87" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q87" s="49"/>
+      <c r="R87" s="49"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+      <c r="V87" s="49"/>
+      <c r="W87" s="49"/>
+      <c r="X87" s="49"/>
+      <c r="Y87" s="49"/>
+      <c r="Z87" s="49"/>
+      <c r="AA87" s="49"/>
+    </row>
+    <row r="88" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D88" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+    </row>
+    <row r="89" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+    </row>
+    <row r="90" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+    </row>
+    <row r="91" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+    </row>
+    <row r="92" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D92" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+    </row>
+    <row r="93" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+    </row>
+    <row r="94" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D94" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+    </row>
+    <row r="95" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D95" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+    </row>
+    <row r="96" spans="4:35" ht="18.75" customHeight="1">
+      <c r="D96" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+    </row>
+    <row r="99" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D99" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+    </row>
+    <row r="100" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D100" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="49"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="49"/>
+      <c r="U100" s="49"/>
+      <c r="V100" s="49"/>
+      <c r="W100" s="49"/>
+      <c r="X100" s="49"/>
+      <c r="Y100" s="49"/>
+      <c r="Z100" s="49"/>
+      <c r="AA100" s="49"/>
+    </row>
+    <row r="101" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D101" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+    </row>
+    <row r="102" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D102" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+    </row>
+    <row r="103" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D103" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+    </row>
+    <row r="104" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D104" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+    </row>
+    <row r="105" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D105" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+    </row>
+    <row r="108" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D108" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="33"/>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="33"/>
+      <c r="S108" s="33"/>
+      <c r="T108" s="33"/>
+      <c r="U108" s="33"/>
+      <c r="V108" s="33"/>
+      <c r="W108" s="33"/>
+      <c r="X108" s="33"/>
+      <c r="Y108" s="33"/>
+      <c r="Z108" s="33"/>
+      <c r="AA108" s="33"/>
+    </row>
+    <row r="109" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D109" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q109" s="49"/>
+      <c r="R109" s="49"/>
+      <c r="S109" s="49"/>
+      <c r="T109" s="49"/>
+      <c r="U109" s="49"/>
+      <c r="V109" s="49"/>
+      <c r="W109" s="49"/>
+      <c r="X109" s="49"/>
+      <c r="Y109" s="49"/>
+      <c r="Z109" s="49"/>
+      <c r="AA109" s="49"/>
+    </row>
+    <row r="110" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D110" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+    </row>
+    <row r="111" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D111" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+    </row>
+    <row r="112" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D112" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+    </row>
+    <row r="113" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D113" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+    </row>
+    <row r="114" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+    </row>
+    <row r="115" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D115" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="12"/>
+    </row>
+    <row r="116" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D116" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+    </row>
+    <row r="117" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D117" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="12"/>
+    </row>
+    <row r="118" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D118" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="12"/>
+    </row>
+    <row r="119" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D119" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="12"/>
+    </row>
+    <row r="123" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D123" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33"/>
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+      <c r="R123" s="33"/>
+      <c r="S123" s="33"/>
+      <c r="T123" s="33"/>
+      <c r="U123" s="33"/>
+      <c r="V123" s="33"/>
+      <c r="W123" s="33"/>
+      <c r="X123" s="33"/>
+      <c r="Y123" s="33"/>
+      <c r="Z123" s="33"/>
+      <c r="AA123" s="33"/>
+    </row>
+    <row r="124" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D124" s="50">
+        <v>1</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
+      <c r="S124" s="41"/>
+      <c r="T124" s="41"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="41"/>
+      <c r="W124" s="41"/>
+      <c r="X124" s="41"/>
+      <c r="Y124" s="41"/>
+      <c r="Z124" s="41"/>
+      <c r="AA124" s="42"/>
+    </row>
+    <row r="125" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D125" s="51"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
+      <c r="K125" s="47"/>
+      <c r="L125" s="47"/>
+      <c r="M125" s="47"/>
+      <c r="N125" s="47"/>
+      <c r="O125" s="47"/>
+      <c r="P125" s="47"/>
+      <c r="Q125" s="47"/>
+      <c r="R125" s="47"/>
+      <c r="S125" s="47"/>
+      <c r="T125" s="47"/>
+      <c r="U125" s="47"/>
+      <c r="V125" s="47"/>
+      <c r="W125" s="47"/>
+      <c r="X125" s="47"/>
+      <c r="Y125" s="47"/>
+      <c r="Z125" s="47"/>
+      <c r="AA125" s="48"/>
+    </row>
+    <row r="126" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D126" s="50">
+        <v>2</v>
+      </c>
+      <c r="E126" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
+      <c r="P126" s="41"/>
+      <c r="Q126" s="41"/>
+      <c r="R126" s="41"/>
+      <c r="S126" s="41"/>
+      <c r="T126" s="41"/>
+      <c r="U126" s="41"/>
+      <c r="V126" s="41"/>
+      <c r="W126" s="41"/>
+      <c r="X126" s="41"/>
+      <c r="Y126" s="41"/>
+      <c r="Z126" s="41"/>
+      <c r="AA126" s="42"/>
+    </row>
+    <row r="127" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D127" s="52"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44"/>
+      <c r="J127" s="44"/>
+      <c r="K127" s="44"/>
+      <c r="L127" s="44"/>
+      <c r="M127" s="44"/>
+      <c r="N127" s="44"/>
+      <c r="O127" s="44"/>
+      <c r="P127" s="44"/>
+      <c r="Q127" s="44"/>
+      <c r="R127" s="44"/>
+      <c r="S127" s="44"/>
+      <c r="T127" s="44"/>
+      <c r="U127" s="44"/>
+      <c r="V127" s="44"/>
+      <c r="W127" s="44"/>
+      <c r="X127" s="44"/>
+      <c r="Y127" s="44"/>
+      <c r="Z127" s="44"/>
+      <c r="AA127" s="45"/>
+    </row>
+    <row r="128" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D128" s="51"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47"/>
+      <c r="J128" s="47"/>
+      <c r="K128" s="47"/>
+      <c r="L128" s="47"/>
+      <c r="M128" s="47"/>
+      <c r="N128" s="47"/>
+      <c r="O128" s="47"/>
+      <c r="P128" s="47"/>
+      <c r="Q128" s="47"/>
+      <c r="R128" s="47"/>
+      <c r="S128" s="47"/>
+      <c r="T128" s="47"/>
+      <c r="U128" s="47"/>
+      <c r="V128" s="47"/>
+      <c r="W128" s="47"/>
+      <c r="X128" s="47"/>
+      <c r="Y128" s="47"/>
+      <c r="Z128" s="47"/>
+      <c r="AA128" s="48"/>
+    </row>
+    <row r="129" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D129" s="50">
+        <v>3</v>
+      </c>
+      <c r="E129" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="41"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="41"/>
+      <c r="P129" s="41"/>
+      <c r="Q129" s="41"/>
+      <c r="R129" s="41"/>
+      <c r="S129" s="41"/>
+      <c r="T129" s="41"/>
+      <c r="U129" s="41"/>
+      <c r="V129" s="41"/>
+      <c r="W129" s="41"/>
+      <c r="X129" s="41"/>
+      <c r="Y129" s="41"/>
+      <c r="Z129" s="41"/>
+      <c r="AA129" s="42"/>
+    </row>
+    <row r="130" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D130" s="52"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="44"/>
+      <c r="J130" s="44"/>
+      <c r="K130" s="44"/>
+      <c r="L130" s="44"/>
+      <c r="M130" s="44"/>
+      <c r="N130" s="44"/>
+      <c r="O130" s="44"/>
+      <c r="P130" s="44"/>
+      <c r="Q130" s="44"/>
+      <c r="R130" s="44"/>
+      <c r="S130" s="44"/>
+      <c r="T130" s="44"/>
+      <c r="U130" s="44"/>
+      <c r="V130" s="44"/>
+      <c r="W130" s="44"/>
+      <c r="X130" s="44"/>
+      <c r="Y130" s="44"/>
+      <c r="Z130" s="44"/>
+      <c r="AA130" s="45"/>
+    </row>
+    <row r="131" spans="4:27" ht="18.75" customHeight="1">
+      <c r="D131" s="51"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="47"/>
+      <c r="L131" s="47"/>
+      <c r="M131" s="47"/>
+      <c r="N131" s="47"/>
+      <c r="O131" s="47"/>
+      <c r="P131" s="47"/>
+      <c r="Q131" s="47"/>
+      <c r="R131" s="47"/>
+      <c r="S131" s="47"/>
+      <c r="T131" s="47"/>
+      <c r="U131" s="47"/>
+      <c r="V131" s="47"/>
+      <c r="W131" s="47"/>
+      <c r="X131" s="47"/>
+      <c r="Y131" s="47"/>
+      <c r="Z131" s="47"/>
+      <c r="AA131" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
-    <mergeCell ref="E83:O83"/>
-    <mergeCell ref="Q83:AA83"/>
-    <mergeCell ref="AB79:AI79"/>
-    <mergeCell ref="AB80:AI80"/>
-    <mergeCell ref="AB81:AI81"/>
-    <mergeCell ref="AB82:AI82"/>
-    <mergeCell ref="AB83:AI83"/>
-    <mergeCell ref="E79:O79"/>
-    <mergeCell ref="Q79:AA79"/>
-    <mergeCell ref="E80:O80"/>
-    <mergeCell ref="Q80:AA80"/>
-    <mergeCell ref="E81:O81"/>
-    <mergeCell ref="Q81:AA81"/>
-    <mergeCell ref="E82:O82"/>
-    <mergeCell ref="Q82:AA82"/>
-    <mergeCell ref="D38:M39"/>
-    <mergeCell ref="D40:M42"/>
-    <mergeCell ref="N38:T39"/>
-    <mergeCell ref="U38:AA39"/>
-    <mergeCell ref="U40:AA42"/>
-    <mergeCell ref="N40:T42"/>
-    <mergeCell ref="N29:T30"/>
-    <mergeCell ref="U29:AA30"/>
-    <mergeCell ref="N32:T37"/>
-    <mergeCell ref="U32:AA37"/>
-    <mergeCell ref="D32:M37"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="D29:M30"/>
-    <mergeCell ref="K15:U16"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D18:U19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="L24:U24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="L23:U23"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:AA28"/>
+  <mergeCells count="209">
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="I119:O119"/>
+    <mergeCell ref="P119:AA119"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:O116"/>
+    <mergeCell ref="P116:AA116"/>
+    <mergeCell ref="D117:H117"/>
+    <mergeCell ref="I117:O117"/>
+    <mergeCell ref="P117:AA117"/>
+    <mergeCell ref="D118:H118"/>
+    <mergeCell ref="I118:O118"/>
+    <mergeCell ref="P118:AA118"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:AA131"/>
+    <mergeCell ref="D108:AA108"/>
+    <mergeCell ref="D109:H109"/>
+    <mergeCell ref="I109:O109"/>
+    <mergeCell ref="P109:AA109"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="I110:O110"/>
+    <mergeCell ref="P110:AA110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="I111:O111"/>
+    <mergeCell ref="P111:AA111"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="I112:O112"/>
+    <mergeCell ref="P112:AA112"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="I113:O113"/>
+    <mergeCell ref="P113:AA113"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="I114:O114"/>
+    <mergeCell ref="P114:AA114"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="I115:O115"/>
+    <mergeCell ref="P115:AA115"/>
+    <mergeCell ref="D123:AA123"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:AA125"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="E126:AA128"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="I105:O105"/>
+    <mergeCell ref="P105:AA105"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="I104:O104"/>
+    <mergeCell ref="P104:AA104"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="I102:O102"/>
+    <mergeCell ref="P102:AA102"/>
+    <mergeCell ref="D103:H103"/>
+    <mergeCell ref="I103:O103"/>
+    <mergeCell ref="P103:AA103"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="I96:O96"/>
+    <mergeCell ref="P96:AA96"/>
+    <mergeCell ref="D99:AA99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="I100:O100"/>
+    <mergeCell ref="P100:AA100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="I101:O101"/>
+    <mergeCell ref="P101:AA101"/>
+    <mergeCell ref="D92:H93"/>
+    <mergeCell ref="I92:O93"/>
+    <mergeCell ref="P92:AA93"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="I94:O94"/>
+    <mergeCell ref="P94:AA94"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="I95:O95"/>
+    <mergeCell ref="P95:AA95"/>
+    <mergeCell ref="D86:AA86"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="I87:O87"/>
+    <mergeCell ref="P87:AA87"/>
+    <mergeCell ref="D88:H89"/>
+    <mergeCell ref="I88:O89"/>
+    <mergeCell ref="P88:AA89"/>
+    <mergeCell ref="D90:H91"/>
+    <mergeCell ref="I90:O91"/>
+    <mergeCell ref="P90:AA91"/>
+    <mergeCell ref="D65:AI66"/>
+    <mergeCell ref="U75:Y75"/>
+    <mergeCell ref="Z67:AI67"/>
+    <mergeCell ref="Z68:AI68"/>
+    <mergeCell ref="Z69:AI69"/>
+    <mergeCell ref="Z70:AI70"/>
+    <mergeCell ref="Z71:AI71"/>
+    <mergeCell ref="Z72:AI72"/>
+    <mergeCell ref="Z73:AI73"/>
+    <mergeCell ref="Z74:AI74"/>
+    <mergeCell ref="Z75:AI75"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="U71:Y71"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="U73:Y73"/>
+    <mergeCell ref="U74:Y74"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="D49:K54"/>
+    <mergeCell ref="D55:K61"/>
+    <mergeCell ref="L49:S54"/>
+    <mergeCell ref="L55:S61"/>
+    <mergeCell ref="T49:AA54"/>
+    <mergeCell ref="T55:AA61"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="D46:K48"/>
+    <mergeCell ref="L45:S45"/>
+    <mergeCell ref="L46:S48"/>
+    <mergeCell ref="T46:AA48"/>
+    <mergeCell ref="T45:AA45"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
@@ -3655,64 +5189,51 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="D49:K54"/>
-    <mergeCell ref="D55:K61"/>
-    <mergeCell ref="L49:S54"/>
-    <mergeCell ref="L55:S61"/>
-    <mergeCell ref="T49:AA54"/>
-    <mergeCell ref="T55:AA61"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="D46:K48"/>
-    <mergeCell ref="L45:S45"/>
-    <mergeCell ref="L46:S48"/>
-    <mergeCell ref="T46:AA48"/>
-    <mergeCell ref="T45:AA45"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="D65:AI66"/>
-    <mergeCell ref="U75:Y75"/>
-    <mergeCell ref="Z67:AI67"/>
-    <mergeCell ref="Z68:AI68"/>
-    <mergeCell ref="Z69:AI69"/>
-    <mergeCell ref="Z70:AI70"/>
-    <mergeCell ref="Z71:AI71"/>
-    <mergeCell ref="Z72:AI72"/>
-    <mergeCell ref="Z73:AI73"/>
-    <mergeCell ref="Z74:AI74"/>
-    <mergeCell ref="Z75:AI75"/>
-    <mergeCell ref="U70:Y70"/>
-    <mergeCell ref="U71:Y71"/>
-    <mergeCell ref="U72:Y72"/>
-    <mergeCell ref="U73:Y73"/>
-    <mergeCell ref="U74:Y74"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="K15:U16"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D18:U19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="L24:U24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="L23:U23"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="D38:M39"/>
+    <mergeCell ref="D40:M42"/>
+    <mergeCell ref="N38:T39"/>
+    <mergeCell ref="U38:AA39"/>
+    <mergeCell ref="U40:AA42"/>
+    <mergeCell ref="N40:T42"/>
+    <mergeCell ref="N29:T30"/>
+    <mergeCell ref="U29:AA30"/>
+    <mergeCell ref="N32:T37"/>
+    <mergeCell ref="U32:AA37"/>
+    <mergeCell ref="D32:M37"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="D29:M30"/>
+    <mergeCell ref="E83:O83"/>
+    <mergeCell ref="Q83:AA83"/>
+    <mergeCell ref="AB79:AI79"/>
+    <mergeCell ref="AB80:AI80"/>
+    <mergeCell ref="AB81:AI81"/>
+    <mergeCell ref="AB82:AI82"/>
+    <mergeCell ref="AB83:AI83"/>
+    <mergeCell ref="E79:O79"/>
+    <mergeCell ref="Q79:AA79"/>
+    <mergeCell ref="E80:O80"/>
+    <mergeCell ref="Q80:AA80"/>
+    <mergeCell ref="E81:O81"/>
+    <mergeCell ref="Q81:AA81"/>
+    <mergeCell ref="E82:O82"/>
+    <mergeCell ref="Q82:AA82"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:H8 D68:E71">
     <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
